--- a/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
+++ b/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$11:$Z$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$O$103</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
@@ -769,10 +770,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z103"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y131" sqref="Y131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1157,6 +1159,10 @@
       <c r="M13" s="21"/>
       <c r="N13" s="16"/>
       <c r="O13" s="2"/>
+      <c r="Y13">
+        <f t="shared" ref="Y13:Y76" si="0">P13+(IF((Q13+R13+S13+T13)&gt;30,(Q13+R13+S13+T13)/4,IF((Q13+R13+S13+T13)&gt;20,(Q13+R13+S13+T13)/3,IF((Q13+R13+S13+T13)&gt;10,(Q13+R13+S13+T13)/2,(Q13+R13+S13+T13)))))+(U13*V13)+W13+X13+Z13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
@@ -1174,6 +1180,10 @@
       <c r="M14" s="21"/>
       <c r="N14" s="16"/>
       <c r="O14" s="2"/>
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
@@ -1191,6 +1201,10 @@
       <c r="M15" s="21"/>
       <c r="N15" s="16"/>
       <c r="O15" s="2"/>
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24"/>
@@ -1208,8 +1222,12 @@
       <c r="M16" s="21"/>
       <c r="N16" s="16"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="20"/>
@@ -1225,8 +1243,12 @@
       <c r="M17" s="21"/>
       <c r="N17" s="16"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="20"/>
@@ -1242,8 +1264,12 @@
       <c r="M18" s="21"/>
       <c r="N18" s="16"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="20"/>
@@ -1259,8 +1285,12 @@
       <c r="M19" s="21"/>
       <c r="N19" s="16"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="20"/>
@@ -1276,8 +1306,12 @@
       <c r="M20" s="21"/>
       <c r="N20" s="16"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="24"/>
       <c r="C21" s="20"/>
@@ -1293,8 +1327,12 @@
       <c r="M21" s="21"/>
       <c r="N21" s="16"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="20"/>
@@ -1310,8 +1348,12 @@
       <c r="M22" s="21"/>
       <c r="N22" s="16"/>
       <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="20"/>
@@ -1327,8 +1369,12 @@
       <c r="M23" s="21"/>
       <c r="N23" s="16"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="20"/>
@@ -1344,8 +1390,12 @@
       <c r="M24" s="21"/>
       <c r="N24" s="16"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24"/>
       <c r="B25" s="24"/>
       <c r="C25" s="20"/>
@@ -1361,8 +1411,12 @@
       <c r="M25" s="21"/>
       <c r="N25" s="16"/>
       <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24"/>
       <c r="B26" s="24"/>
       <c r="C26" s="20"/>
@@ -1378,8 +1432,12 @@
       <c r="M26" s="21"/>
       <c r="N26" s="16"/>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24"/>
       <c r="B27" s="24"/>
       <c r="C27" s="20"/>
@@ -1395,8 +1453,12 @@
       <c r="M27" s="21"/>
       <c r="N27" s="16"/>
       <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24"/>
       <c r="B28" s="24"/>
       <c r="C28" s="20"/>
@@ -1412,8 +1474,12 @@
       <c r="M28" s="21"/>
       <c r="N28" s="16"/>
       <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24"/>
       <c r="B29" s="24"/>
       <c r="C29" s="20"/>
@@ -1429,8 +1495,12 @@
       <c r="M29" s="21"/>
       <c r="N29" s="16"/>
       <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="20"/>
@@ -1446,8 +1516,12 @@
       <c r="M30" s="21"/>
       <c r="N30" s="16"/>
       <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24"/>
       <c r="B31" s="24"/>
       <c r="C31" s="20"/>
@@ -1463,8 +1537,12 @@
       <c r="M31" s="21"/>
       <c r="N31" s="16"/>
       <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="20"/>
@@ -1480,8 +1558,12 @@
       <c r="M32" s="21"/>
       <c r="N32" s="16"/>
       <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="20"/>
@@ -1497,8 +1579,12 @@
       <c r="M33" s="21"/>
       <c r="N33" s="16"/>
       <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="24"/>
       <c r="B34" s="24"/>
       <c r="C34" s="20"/>
@@ -1514,8 +1600,12 @@
       <c r="M34" s="21"/>
       <c r="N34" s="16"/>
       <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24"/>
       <c r="B35" s="24"/>
       <c r="C35" s="20"/>
@@ -1531,8 +1621,12 @@
       <c r="M35" s="21"/>
       <c r="N35" s="16"/>
       <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
       <c r="C36" s="20"/>
@@ -1548,8 +1642,12 @@
       <c r="M36" s="21"/>
       <c r="N36" s="16"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="20"/>
@@ -1565,8 +1663,12 @@
       <c r="M37" s="21"/>
       <c r="N37" s="16"/>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
       <c r="C38" s="20"/>
@@ -1582,8 +1684,12 @@
       <c r="M38" s="21"/>
       <c r="N38" s="16"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24"/>
       <c r="B39" s="24"/>
       <c r="C39" s="20"/>
@@ -1599,8 +1705,12 @@
       <c r="M39" s="21"/>
       <c r="N39" s="16"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="24"/>
       <c r="B40" s="24"/>
       <c r="C40" s="20"/>
@@ -1616,8 +1726,12 @@
       <c r="M40" s="21"/>
       <c r="N40" s="16"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="24"/>
       <c r="B41" s="24"/>
       <c r="C41" s="20"/>
@@ -1633,8 +1747,12 @@
       <c r="M41" s="21"/>
       <c r="N41" s="16"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="24"/>
       <c r="B42" s="24"/>
       <c r="C42" s="20"/>
@@ -1650,8 +1768,12 @@
       <c r="M42" s="21"/>
       <c r="N42" s="16"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="20"/>
@@ -1667,8 +1789,12 @@
       <c r="M43" s="21"/>
       <c r="N43" s="16"/>
       <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24"/>
       <c r="B44" s="24"/>
       <c r="C44" s="20"/>
@@ -1684,8 +1810,12 @@
       <c r="M44" s="21"/>
       <c r="N44" s="16"/>
       <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24"/>
       <c r="B45" s="24"/>
       <c r="C45" s="20"/>
@@ -1701,8 +1831,12 @@
       <c r="M45" s="21"/>
       <c r="N45" s="16"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24"/>
       <c r="B46" s="24"/>
       <c r="C46" s="20"/>
@@ -1718,8 +1852,12 @@
       <c r="M46" s="21"/>
       <c r="N46" s="16"/>
       <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24"/>
       <c r="B47" s="24"/>
       <c r="C47" s="20"/>
@@ -1735,8 +1873,12 @@
       <c r="M47" s="21"/>
       <c r="N47" s="16"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24"/>
       <c r="B48" s="24"/>
       <c r="C48" s="20"/>
@@ -1752,8 +1894,12 @@
       <c r="M48" s="21"/>
       <c r="N48" s="16"/>
       <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="20"/>
@@ -1769,8 +1915,12 @@
       <c r="M49" s="21"/>
       <c r="N49" s="16"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="24"/>
       <c r="B50" s="24"/>
       <c r="C50" s="20"/>
@@ -1786,8 +1936,12 @@
       <c r="M50" s="21"/>
       <c r="N50" s="16"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="24"/>
       <c r="B51" s="24"/>
       <c r="C51" s="20"/>
@@ -1803,8 +1957,12 @@
       <c r="M51" s="21"/>
       <c r="N51" s="16"/>
       <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="24"/>
       <c r="B52" s="24"/>
       <c r="C52" s="20"/>
@@ -1820,8 +1978,12 @@
       <c r="M52" s="21"/>
       <c r="N52" s="16"/>
       <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24"/>
       <c r="B53" s="24"/>
       <c r="C53" s="20"/>
@@ -1837,8 +1999,12 @@
       <c r="M53" s="21"/>
       <c r="N53" s="16"/>
       <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="20"/>
@@ -1854,8 +2020,12 @@
       <c r="M54" s="21"/>
       <c r="N54" s="16"/>
       <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24"/>
       <c r="B55" s="24"/>
       <c r="C55" s="20"/>
@@ -1871,8 +2041,12 @@
       <c r="M55" s="21"/>
       <c r="N55" s="16"/>
       <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24"/>
       <c r="B56" s="24"/>
       <c r="C56" s="20"/>
@@ -1888,8 +2062,12 @@
       <c r="M56" s="21"/>
       <c r="N56" s="16"/>
       <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24"/>
       <c r="B57" s="24"/>
       <c r="C57" s="20"/>
@@ -1905,8 +2083,12 @@
       <c r="M57" s="21"/>
       <c r="N57" s="16"/>
       <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24"/>
       <c r="B58" s="24"/>
       <c r="C58" s="20"/>
@@ -1922,8 +2104,12 @@
       <c r="M58" s="21"/>
       <c r="N58" s="16"/>
       <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="24"/>
       <c r="B59" s="24"/>
       <c r="C59" s="20"/>
@@ -1939,8 +2125,12 @@
       <c r="M59" s="21"/>
       <c r="N59" s="16"/>
       <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="24"/>
       <c r="B60" s="24"/>
       <c r="C60" s="20"/>
@@ -1956,8 +2146,12 @@
       <c r="M60" s="21"/>
       <c r="N60" s="16"/>
       <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="24"/>
       <c r="B61" s="24"/>
       <c r="C61" s="20"/>
@@ -1973,8 +2167,12 @@
       <c r="M61" s="21"/>
       <c r="N61" s="16"/>
       <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24"/>
       <c r="B62" s="24"/>
       <c r="C62" s="20"/>
@@ -1990,8 +2188,12 @@
       <c r="M62" s="21"/>
       <c r="N62" s="16"/>
       <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="20"/>
@@ -2007,8 +2209,12 @@
       <c r="M63" s="21"/>
       <c r="N63" s="16"/>
       <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="20"/>
@@ -2024,8 +2230,12 @@
       <c r="M64" s="21"/>
       <c r="N64" s="16"/>
       <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24"/>
       <c r="B65" s="24"/>
       <c r="C65" s="20"/>
@@ -2041,8 +2251,12 @@
       <c r="M65" s="21"/>
       <c r="N65" s="16"/>
       <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24"/>
       <c r="B66" s="24"/>
       <c r="C66" s="20"/>
@@ -2058,8 +2272,12 @@
       <c r="M66" s="21"/>
       <c r="N66" s="16"/>
       <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="24"/>
       <c r="B67" s="24"/>
       <c r="C67" s="20"/>
@@ -2075,8 +2293,12 @@
       <c r="M67" s="21"/>
       <c r="N67" s="16"/>
       <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="24"/>
       <c r="B68" s="24"/>
       <c r="C68" s="20"/>
@@ -2092,8 +2314,12 @@
       <c r="M68" s="21"/>
       <c r="N68" s="16"/>
       <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="24"/>
       <c r="B69" s="24"/>
       <c r="C69" s="20"/>
@@ -2109,8 +2335,12 @@
       <c r="M69" s="21"/>
       <c r="N69" s="16"/>
       <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="24"/>
       <c r="B70" s="24"/>
       <c r="C70" s="20"/>
@@ -2126,8 +2356,12 @@
       <c r="M70" s="21"/>
       <c r="N70" s="16"/>
       <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24"/>
       <c r="B71" s="24"/>
       <c r="C71" s="20"/>
@@ -2143,8 +2377,12 @@
       <c r="M71" s="21"/>
       <c r="N71" s="16"/>
       <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24"/>
       <c r="B72" s="24"/>
       <c r="C72" s="20"/>
@@ -2160,8 +2398,12 @@
       <c r="M72" s="21"/>
       <c r="N72" s="16"/>
       <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24"/>
       <c r="B73" s="24"/>
       <c r="C73" s="20"/>
@@ -2177,8 +2419,12 @@
       <c r="M73" s="21"/>
       <c r="N73" s="16"/>
       <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24"/>
       <c r="B74" s="24"/>
       <c r="C74" s="20"/>
@@ -2194,8 +2440,12 @@
       <c r="M74" s="21"/>
       <c r="N74" s="16"/>
       <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24"/>
       <c r="B75" s="24"/>
       <c r="C75" s="20"/>
@@ -2211,8 +2461,12 @@
       <c r="M75" s="21"/>
       <c r="N75" s="16"/>
       <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="24"/>
       <c r="B76" s="24"/>
       <c r="C76" s="20"/>
@@ -2228,8 +2482,12 @@
       <c r="M76" s="21"/>
       <c r="N76" s="16"/>
       <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="24"/>
       <c r="B77" s="24"/>
       <c r="C77" s="20"/>
@@ -2245,8 +2503,12 @@
       <c r="M77" s="21"/>
       <c r="N77" s="16"/>
       <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y77">
+        <f t="shared" ref="Y77:Y103" si="1">P77+(IF((Q77+R77+S77+T77)&gt;30,(Q77+R77+S77+T77)/4,IF((Q77+R77+S77+T77)&gt;20,(Q77+R77+S77+T77)/3,IF((Q77+R77+S77+T77)&gt;10,(Q77+R77+S77+T77)/2,(Q77+R77+S77+T77)))))+(U77*V77)+W77+X77+Z77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="24"/>
       <c r="B78" s="24"/>
       <c r="C78" s="20"/>
@@ -2262,8 +2524,12 @@
       <c r="M78" s="21"/>
       <c r="N78" s="16"/>
       <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="24"/>
       <c r="B79" s="24"/>
       <c r="C79" s="20"/>
@@ -2279,8 +2545,12 @@
       <c r="M79" s="21"/>
       <c r="N79" s="16"/>
       <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24"/>
       <c r="B80" s="24"/>
       <c r="C80" s="20"/>
@@ -2296,8 +2566,12 @@
       <c r="M80" s="21"/>
       <c r="N80" s="16"/>
       <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24"/>
       <c r="B81" s="24"/>
       <c r="C81" s="20"/>
@@ -2313,8 +2587,12 @@
       <c r="M81" s="21"/>
       <c r="N81" s="16"/>
       <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24"/>
       <c r="B82" s="24"/>
       <c r="C82" s="20"/>
@@ -2330,8 +2608,12 @@
       <c r="M82" s="21"/>
       <c r="N82" s="16"/>
       <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
       <c r="C83" s="20"/>
@@ -2347,8 +2629,12 @@
       <c r="M83" s="21"/>
       <c r="N83" s="16"/>
       <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24"/>
       <c r="B84" s="24"/>
       <c r="C84" s="20"/>
@@ -2364,8 +2650,12 @@
       <c r="M84" s="21"/>
       <c r="N84" s="16"/>
       <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="24"/>
       <c r="B85" s="24"/>
       <c r="C85" s="20"/>
@@ -2381,8 +2671,12 @@
       <c r="M85" s="21"/>
       <c r="N85" s="16"/>
       <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="24"/>
       <c r="B86" s="24"/>
       <c r="C86" s="20"/>
@@ -2398,8 +2692,12 @@
       <c r="M86" s="21"/>
       <c r="N86" s="16"/>
       <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="24"/>
       <c r="B87" s="24"/>
       <c r="C87" s="20"/>
@@ -2415,8 +2713,12 @@
       <c r="M87" s="21"/>
       <c r="N87" s="16"/>
       <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="24"/>
       <c r="B88" s="24"/>
       <c r="C88" s="20"/>
@@ -2432,8 +2734,12 @@
       <c r="M88" s="21"/>
       <c r="N88" s="16"/>
       <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24"/>
       <c r="B89" s="24"/>
       <c r="C89" s="20"/>
@@ -2449,8 +2755,12 @@
       <c r="M89" s="21"/>
       <c r="N89" s="16"/>
       <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24"/>
       <c r="B90" s="24"/>
       <c r="C90" s="20"/>
@@ -2466,8 +2776,12 @@
       <c r="M90" s="21"/>
       <c r="N90" s="16"/>
       <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24"/>
       <c r="B91" s="24"/>
       <c r="C91" s="20"/>
@@ -2483,8 +2797,12 @@
       <c r="M91" s="21"/>
       <c r="N91" s="16"/>
       <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24"/>
       <c r="B92" s="24"/>
       <c r="C92" s="20"/>
@@ -2500,8 +2818,12 @@
       <c r="M92" s="21"/>
       <c r="N92" s="16"/>
       <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24"/>
       <c r="B93" s="24"/>
       <c r="C93" s="20"/>
@@ -2517,8 +2839,12 @@
       <c r="M93" s="21"/>
       <c r="N93" s="16"/>
       <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="24"/>
       <c r="B94" s="24"/>
       <c r="C94" s="20"/>
@@ -2534,8 +2860,12 @@
       <c r="M94" s="21"/>
       <c r="N94" s="16"/>
       <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="24"/>
       <c r="B95" s="24"/>
       <c r="C95" s="20"/>
@@ -2551,8 +2881,12 @@
       <c r="M95" s="21"/>
       <c r="N95" s="16"/>
       <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="24"/>
       <c r="B96" s="24"/>
       <c r="C96" s="20"/>
@@ -2568,8 +2902,12 @@
       <c r="M96" s="21"/>
       <c r="N96" s="16"/>
       <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="24"/>
       <c r="B97" s="24"/>
       <c r="C97" s="20"/>
@@ -2585,8 +2923,12 @@
       <c r="M97" s="21"/>
       <c r="N97" s="16"/>
       <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24"/>
       <c r="B98" s="24"/>
       <c r="C98" s="20"/>
@@ -2602,8 +2944,12 @@
       <c r="M98" s="21"/>
       <c r="N98" s="16"/>
       <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24"/>
       <c r="B99" s="24"/>
       <c r="C99" s="20"/>
@@ -2619,8 +2965,12 @@
       <c r="M99" s="21"/>
       <c r="N99" s="16"/>
       <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24"/>
       <c r="B100" s="24"/>
       <c r="C100" s="20"/>
@@ -2636,8 +2986,12 @@
       <c r="M100" s="21"/>
       <c r="N100" s="16"/>
       <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24"/>
       <c r="B101" s="24"/>
       <c r="C101" s="20"/>
@@ -2653,8 +3007,12 @@
       <c r="M101" s="21"/>
       <c r="N101" s="16"/>
       <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24"/>
       <c r="B102" s="24"/>
       <c r="C102" s="20"/>
@@ -2670,8 +3028,12 @@
       <c r="M102" s="21"/>
       <c r="N102" s="16"/>
       <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="24"/>
       <c r="B103" s="24"/>
       <c r="C103" s="20"/>
@@ -2687,9 +3049,724 @@
       <c r="M103" s="21"/>
       <c r="N103" s="16"/>
       <c r="O103" s="2"/>
+      <c r="Y103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="24"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="2"/>
+      <c r="Y104">
+        <f t="shared" ref="Y104:Y130" si="2">P104+(IF((Q104+R104+S104+T104)&gt;30,(Q104+R104+S104+T104)/4,IF((Q104+R104+S104+T104)&gt;20,(Q104+R104+S104+T104)/3,IF((Q104+R104+S104+T104)&gt;10,(Q104+R104+S104+T104)/2,(Q104+R104+S104+T104)))))+(U104*V104)+W104+X104+Z104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="24"/>
+      <c r="B105" s="24"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="2"/>
+      <c r="Y105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="24"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="2"/>
+      <c r="Y106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="24"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="2"/>
+      <c r="Y107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="24"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="2"/>
+      <c r="Y108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="24"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="2"/>
+      <c r="Y109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="24"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="20"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="2"/>
+      <c r="Y110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="24"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="2"/>
+      <c r="Y111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="24"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="2"/>
+      <c r="Y112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="24"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="2"/>
+      <c r="Y113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="24"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="2"/>
+      <c r="Y114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="24"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="2"/>
+      <c r="Y115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="24"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="16"/>
+      <c r="O116" s="2"/>
+      <c r="Y116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="16"/>
+      <c r="O117" s="2"/>
+      <c r="Y117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="16"/>
+      <c r="O118" s="2"/>
+      <c r="Y118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="24"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="16"/>
+      <c r="O119" s="2"/>
+      <c r="Y119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="20"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="16"/>
+      <c r="O120" s="2"/>
+      <c r="Y120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="24"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="16"/>
+      <c r="O121" s="2"/>
+      <c r="Y121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="24"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="20"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="16"/>
+      <c r="O122" s="2"/>
+      <c r="Y122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="24"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="16"/>
+      <c r="O123" s="2"/>
+      <c r="Y123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="24"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="16"/>
+      <c r="O124" s="2"/>
+      <c r="Y124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="24"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="16"/>
+      <c r="O125" s="2"/>
+      <c r="Y125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="16"/>
+      <c r="O126" s="2"/>
+      <c r="Y126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="16"/>
+      <c r="O127" s="2"/>
+      <c r="Y127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="24"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="20"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="16"/>
+      <c r="O128" s="2"/>
+      <c r="Y128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="2"/>
+      <c r="Y129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="24"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="16"/>
+      <c r="O130" s="2"/>
+      <c r="Y130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <autoFilter ref="A11:Z11">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="617">
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="L130:N130"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="L128:N128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="L129:N129"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="L126:N126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="L127:N127"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="L124:N124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="L125:N125"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="L122:N122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="L123:N123"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="L120:N120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="L121:N121"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="L118:N118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="E119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="L119:N119"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="L117:N117"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="E110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="L106:N106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="E107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L107:N107"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="L104:N104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="L105:N105"/>
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:G103"/>
@@ -2810,12 +3887,6 @@
     <mergeCell ref="E81:G81"/>
     <mergeCell ref="H81:I81"/>
     <mergeCell ref="L81:N81"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="L78:N78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:D79"/>
     <mergeCell ref="E79:G79"/>
@@ -2826,15 +3897,6 @@
     <mergeCell ref="E77:G77"/>
     <mergeCell ref="H77:I77"/>
     <mergeCell ref="L77:N77"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
     <mergeCell ref="H71:I71"/>
     <mergeCell ref="L71:N71"/>
     <mergeCell ref="A72:B72"/>
@@ -2842,16 +3904,18 @@
     <mergeCell ref="E72:G72"/>
     <mergeCell ref="H72:I72"/>
     <mergeCell ref="L72:N72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="L75:N75"/>
     <mergeCell ref="A75:B75"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="E75:G75"/>
@@ -2865,6 +3929,19 @@
     <mergeCell ref="E70:G70"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="L70:N70"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="C67:D67"/>
     <mergeCell ref="E67:G67"/>

--- a/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
+++ b/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Page 1'!$A$3:$O$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Page 1'!$A$1:$G$95</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,13 +49,7 @@
     <t>01-MISN-1-777</t>
   </si>
   <si>
-    <t>Cuestionario</t>
-  </si>
-  <si>
     <t>THIS IS A TEST</t>
-  </si>
-  <si>
-    <t>Ayuda</t>
   </si>
   <si>
     <t>CF</t>
@@ -72,11 +66,17 @@
   <si>
     <t>Exp.</t>
   </si>
+  <si>
+    <t>Cuest.</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -641,23 +641,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -704,28 +704,28 @@
         <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
         <f>IF((N4)&gt;70,10,"")</f>
@@ -793,10 +793,10 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N68" si="0">IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -812,10 +812,10 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -831,10 +831,10 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -850,10 +850,10 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,10 +869,10 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -888,10 +888,10 @@
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -907,10 +907,10 @@
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,10 +926,10 @@
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -945,10 +945,10 @@
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,10 +964,10 @@
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -983,10 +983,10 @@
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,10 @@
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,10 +1021,10 @@
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1040,10 +1040,10 @@
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,10 +1059,10 @@
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1078,10 +1078,10 @@
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1097,10 +1097,10 @@
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,10 +1116,10 @@
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1135,10 +1135,10 @@
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1154,10 +1154,10 @@
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1173,10 +1173,10 @@
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1192,10 +1192,10 @@
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1211,10 +1211,10 @@
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,10 +1230,10 @@
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,10 +1249,10 @@
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1268,10 +1268,10 @@
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,10 +1287,10 @@
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1306,10 +1306,10 @@
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1344,10 +1344,10 @@
       </c>
       <c r="N34">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1363,10 +1363,10 @@
       </c>
       <c r="N35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,10 +1382,10 @@
       </c>
       <c r="N36">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1401,10 +1401,10 @@
       </c>
       <c r="N37">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,10 +1420,10 @@
       </c>
       <c r="N38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,10 +1439,10 @@
       </c>
       <c r="N39">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,10 +1458,10 @@
       </c>
       <c r="N40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1477,10 +1477,10 @@
       </c>
       <c r="N41">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1496,10 +1496,10 @@
       </c>
       <c r="N42">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,10 +1515,10 @@
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1534,10 +1534,10 @@
       </c>
       <c r="N44">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
       </c>
       <c r="N45">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1572,10 +1572,10 @@
       </c>
       <c r="N46">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1591,10 +1591,10 @@
       </c>
       <c r="N47">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
       </c>
       <c r="N48">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1629,10 +1629,10 @@
       </c>
       <c r="N49">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1648,10 +1648,10 @@
       </c>
       <c r="N50">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,10 +1667,10 @@
       </c>
       <c r="N51">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1686,10 +1686,10 @@
       </c>
       <c r="N52">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1705,10 +1705,10 @@
       </c>
       <c r="N53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,10 +1724,10 @@
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,10 +1743,10 @@
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1762,10 +1762,10 @@
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1781,10 +1781,10 @@
       </c>
       <c r="N57">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,10 +1800,10 @@
       </c>
       <c r="N58">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1819,10 +1819,10 @@
       </c>
       <c r="N59">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,10 +1838,10 @@
       </c>
       <c r="N60">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1857,10 +1857,10 @@
       </c>
       <c r="N61">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,10 +1876,10 @@
       </c>
       <c r="N62">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,10 +1895,10 @@
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +1914,10 @@
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,10 +1933,10 @@
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,10 +1952,10 @@
       </c>
       <c r="N66">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,10 +1971,10 @@
       </c>
       <c r="N67">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1990,10 +1990,10 @@
       </c>
       <c r="N68">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,10 +2009,10 @@
       </c>
       <c r="N69">
         <f t="shared" ref="N69:N122" si="1">IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2028,10 +2028,10 @@
       </c>
       <c r="N70">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2047,10 +2047,10 @@
       </c>
       <c r="N71">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2066,10 +2066,10 @@
       </c>
       <c r="N72">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2085,10 +2085,10 @@
       </c>
       <c r="N73">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2104,10 +2104,10 @@
       </c>
       <c r="N74">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2123,10 +2123,10 @@
       </c>
       <c r="N75">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2142,10 +2142,10 @@
       </c>
       <c r="N76">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2161,10 +2161,10 @@
       </c>
       <c r="N77">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2180,10 +2180,10 @@
       </c>
       <c r="N78">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2199,10 +2199,10 @@
       </c>
       <c r="N79">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O79">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2218,10 +2218,10 @@
       </c>
       <c r="N80">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2237,10 +2237,10 @@
       </c>
       <c r="N81">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,10 +2256,10 @@
       </c>
       <c r="N82">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2275,10 +2275,10 @@
       </c>
       <c r="N83">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O83">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,10 +2294,10 @@
       </c>
       <c r="N84">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O84">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2313,10 +2313,10 @@
       </c>
       <c r="N85">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2332,10 +2332,10 @@
       </c>
       <c r="N86">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2351,10 +2351,10 @@
       </c>
       <c r="N87">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O87">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2370,10 +2370,10 @@
       </c>
       <c r="N88">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O88">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2389,10 +2389,10 @@
       </c>
       <c r="N89">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2408,10 +2408,10 @@
       </c>
       <c r="N90">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O90">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,10 +2427,10 @@
       </c>
       <c r="N91">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O91">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2446,10 +2446,10 @@
       </c>
       <c r="N92">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2465,10 +2465,10 @@
       </c>
       <c r="N93">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O93">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,10 +2484,10 @@
       </c>
       <c r="N94">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O94">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2503,10 +2503,10 @@
       </c>
       <c r="N95">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2522,10 +2522,10 @@
       </c>
       <c r="N96">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2541,10 +2541,10 @@
       </c>
       <c r="N97">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O97">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2560,10 +2560,10 @@
       </c>
       <c r="N98">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2579,10 +2579,10 @@
       </c>
       <c r="N99">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,10 +2598,10 @@
       </c>
       <c r="N100">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O100">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2617,10 +2617,10 @@
       </c>
       <c r="N101">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O101">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2636,10 +2636,10 @@
       </c>
       <c r="N102">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O102">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2655,10 +2655,10 @@
       </c>
       <c r="N103">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O103">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
       </c>
       <c r="N104">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O104">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2693,10 +2693,10 @@
       </c>
       <c r="N105">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O105">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2712,10 +2712,10 @@
       </c>
       <c r="N106">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O106">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2731,10 +2731,10 @@
       </c>
       <c r="N107">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
       </c>
       <c r="N108">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2769,10 +2769,10 @@
       </c>
       <c r="N109">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O109">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2788,10 +2788,10 @@
       </c>
       <c r="N110">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2807,10 +2807,10 @@
       </c>
       <c r="N111">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2826,10 +2826,10 @@
       </c>
       <c r="N112">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O112">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2845,10 +2845,10 @@
       </c>
       <c r="N113">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O113">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2864,10 +2864,10 @@
       </c>
       <c r="N114">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O114">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2883,10 +2883,10 @@
       </c>
       <c r="N115">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O115">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,10 +2902,10 @@
       </c>
       <c r="N116">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O116">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2921,10 +2921,10 @@
       </c>
       <c r="N117">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O117">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2940,10 +2940,10 @@
       </c>
       <c r="N118">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O118">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2959,10 +2959,10 @@
       </c>
       <c r="N119">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O119">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,10 +2978,10 @@
       </c>
       <c r="N120">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O120">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,10 +2997,10 @@
       </c>
       <c r="N121">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -3016,10 +3016,10 @@
       </c>
       <c r="N122">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O122">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
+++ b/OYM/_Documentos Comunes/_Plantilla de Evaluacion.xlsx
@@ -637,11 +637,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -739,19 +739,19 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <f>IF((N4)&gt;70,10,"")</f>
+        <f>IF((N4)&gt;=70,10,"")</f>
         <v>10</v>
       </c>
       <c r="E4" s="3">
-        <f>IF((N4)&gt;70,20,"")</f>
+        <f>IF((N4)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="F4" s="3">
-        <f>IF((N4)&gt;70,20,"")</f>
+        <f>IF((N4)&gt;=70,20,"")</f>
         <v>20</v>
       </c>
       <c r="G4" s="7">
-        <f>IF((N4)&gt;70,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
+        <f>IF((N4)&gt;=70,IF((N4-50)&gt;50,50,IF((N4-50)&lt;0,0,(N4-50))), "" )</f>
         <v>50</v>
       </c>
       <c r="H4">
@@ -784,18 +784,27 @@
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
+      <c r="D5" s="7" t="str">
+        <f t="shared" ref="D5:D68" si="0">IF((N5)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" ref="E5:E68" si="1">IF((N5)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F68" si="2">IF((N5)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" ref="G5:G68" si="3">IF((N5)&gt;=70,IF((N5-50)&gt;50,50,IF((N5-50)&lt;0,0,(N5-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="0">IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
+        <f t="shared" ref="N5:N68" si="4">IF((H5+I5+J5+L5+M5+O5)&lt;70,IF((H5+I5+J5+L5+M5+O5)&gt;59,70,(H5+I5+J5+L5+M5+O5)),(H5+I5+J5+L5+M5+O5))</f>
         <v>0</v>
       </c>
     </row>
@@ -803,18 +812,27 @@
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -822,18 +840,27 @@
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="7"/>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -841,18 +868,27 @@
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="7"/>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="N8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O8">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -860,18 +896,27 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="7"/>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -879,18 +924,27 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="7"/>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -898,18 +952,27 @@
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -917,18 +980,27 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7"/>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="N12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -936,18 +1008,27 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7"/>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -955,18 +1036,27 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="7"/>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -974,18 +1064,27 @@
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="7"/>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -993,2033 +1092,4256 @@
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="7"/>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="7"/>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="N17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="7"/>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="N18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="N19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="7"/>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="N20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="7"/>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="N21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="7"/>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F22" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="N22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="7"/>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F23" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="N23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="7"/>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7"/>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="7"/>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="7"/>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="N27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="7"/>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F28" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="N28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="7"/>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F29" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G29" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="N29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="7"/>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F30" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G30" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="N30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="7"/>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F31" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G31" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="N31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="7"/>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G32" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="N32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="7"/>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G33" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="N33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="7"/>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G34" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="N34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="7"/>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E35" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G35" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="N35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="7"/>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F36" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G36" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="N36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="7"/>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F37" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G37" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="N37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="7"/>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F38" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G38" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="N38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F39" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G39" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="7"/>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G40" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="N40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="7"/>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G41" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="7"/>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G42" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="N42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="7"/>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G43" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="7"/>
+      <c r="D44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G44" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="N44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="7"/>
+      <c r="D45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F45" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G45" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="7"/>
+      <c r="D46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F46" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G46" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="7"/>
+      <c r="D47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F47" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G47" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="7"/>
+      <c r="D48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G48" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="7"/>
+      <c r="D49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G49" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="7"/>
+      <c r="D50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G50" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="7"/>
+      <c r="D51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G51" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="7"/>
+      <c r="D52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F52" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G52" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="7"/>
+      <c r="D53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F53" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G53" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="N53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="7"/>
+      <c r="D54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F54" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G54" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="N54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="7"/>
+      <c r="D55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F55" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G55" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="N55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="7"/>
+      <c r="D56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G56" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="N56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="7"/>
+      <c r="D57" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G57" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="7"/>
+      <c r="D58" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G58" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="N58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="7"/>
+      <c r="D59" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E59" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G59" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="7"/>
+      <c r="D60" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G60" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="N60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="7"/>
+      <c r="D61" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G61" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="N61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="7"/>
+      <c r="D62" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G62" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="N62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="7"/>
+      <c r="D63" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F63" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G63" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="N63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="7"/>
+      <c r="D64" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F64" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G64" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="7"/>
+      <c r="D65" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F65" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G65" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="N65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="7"/>
+      <c r="D66" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F66" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G66" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="N66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="7"/>
+      <c r="D67" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F67" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G67" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="7"/>
+      <c r="D68" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="G68" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="N68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="7"/>
+      <c r="D69" s="7" t="str">
+        <f t="shared" ref="D69:D132" si="5">IF((N69)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E69" s="3" t="str">
+        <f t="shared" ref="E69:E132" si="6">IF((N69)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F69" s="3" t="str">
+        <f t="shared" ref="F69:F132" si="7">IF((N69)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G69" s="7" t="str">
+        <f t="shared" ref="G69:G132" si="8">IF((N69)&gt;=70,IF((N69-50)&gt;50,50,IF((N69-50)&lt;0,0,(N69-50))), "" )</f>
+        <v/>
+      </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N122" si="1">IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="N69:N122" si="9">IF((H69+I69+J69+L69+M69+O69)&lt;70,IF((H69+I69+J69+L69+M69+O69)&gt;59,70,(H69+I69+J69+L69+M69+O69)),(H69+I69+J69+L69+M69+O69))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="7"/>
+      <c r="D70" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F70" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G70" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7"/>
+      <c r="D71" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F71" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G71" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="7"/>
+      <c r="D72" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F72" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G72" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
+      <c r="D73" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F73" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G73" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
+      <c r="D74" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E74" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F74" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G74" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="7"/>
+      <c r="D75" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E75" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F75" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G75" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K75">
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="7"/>
+      <c r="D76" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E76" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G76" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="7"/>
+      <c r="D77" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F77" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G77" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="7"/>
+      <c r="D78" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F78" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G78" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="7"/>
+      <c r="D79" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G79" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="7"/>
+      <c r="D80" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F80" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G80" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="7"/>
+      <c r="D81" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E81" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F81" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G81" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="7"/>
+      <c r="D82" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E82" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F82" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G82" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="7"/>
+      <c r="D83" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E83" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F83" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G83" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="7"/>
+      <c r="D84" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E84" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F84" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G84" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="7"/>
+      <c r="D85" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G85" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="7"/>
+      <c r="D86" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F86" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G86" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K86">
         <v>1</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="7"/>
+      <c r="D87" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F87" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G87" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="7"/>
+      <c r="D88" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F88" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G88" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="7"/>
+      <c r="D89" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F89" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G89" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K89">
         <v>1</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="7"/>
+      <c r="D90" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E90" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G90" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="7"/>
+      <c r="D91" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G91" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="7"/>
+      <c r="D92" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E92" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G92" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="7"/>
+      <c r="D93" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E93" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G93" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="7"/>
+      <c r="D94" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E94" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G94" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="7"/>
+      <c r="D95" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E95" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F95" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G95" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="7"/>
+      <c r="D96" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E96" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F96" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G96" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="7"/>
+      <c r="D97" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E97" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F97" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G97" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="7"/>
+      <c r="D98" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E98" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F98" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G98" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="7"/>
+      <c r="D99" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E99" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F99" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G99" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K99">
         <v>1</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="7"/>
+      <c r="D100" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E100" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F100" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G100" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K100">
         <v>1</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="7"/>
+      <c r="D101" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E101" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G101" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K101">
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="7"/>
+      <c r="D102" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E102" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F102" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G102" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K102">
         <v>1</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="7"/>
+      <c r="D103" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E103" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F103" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G103" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="7"/>
+      <c r="D104" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E104" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F104" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G104" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="N104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="7"/>
+      <c r="D105" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E105" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F105" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G105" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="7"/>
+      <c r="D106" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E106" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F106" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G106" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="7"/>
+      <c r="D107" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E107" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F107" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G107" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K107">
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="7"/>
+      <c r="D108" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E108" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F108" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G108" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="N108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="7"/>
+      <c r="D109" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E109" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F109" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G109" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="N109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="7"/>
+      <c r="D110" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E110" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F110" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G110" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K110">
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="7"/>
+      <c r="D111" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E111" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F111" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G111" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="N111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="7"/>
+      <c r="D112" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E112" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F112" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G112" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="7"/>
+      <c r="D113" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E113" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F113" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G113" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="N113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="7"/>
+      <c r="D114" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E114" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F114" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G114" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K114">
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="7"/>
+      <c r="D115" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E115" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F115" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G115" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K115">
         <v>1</v>
       </c>
       <c r="N115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="7"/>
+      <c r="D116" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E116" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F116" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G116" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K116">
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="7"/>
+      <c r="D117" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E117" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F117" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G117" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K117">
         <v>1</v>
       </c>
       <c r="N117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="7"/>
+      <c r="D118" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E118" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F118" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G118" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="N118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="7"/>
+      <c r="D119" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E119" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F119" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G119" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="N119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="7"/>
+      <c r="D120" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E120" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F120" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G120" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="N120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="7"/>
+      <c r="D121" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E121" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F121" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G121" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K121">
         <v>1</v>
       </c>
       <c r="N121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="7"/>
+      <c r="D122" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E122" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F122" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G122" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="K122">
         <v>1</v>
       </c>
       <c r="N122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D123" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E123" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F123" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G123" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D124" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E124" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F124" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G124" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D125" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E125" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F125" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G125" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D126" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E126" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F126" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G126" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D127" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E127" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F127" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G127" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D128" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E128" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F128" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G128" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D129" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E129" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F129" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G129" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D130" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E130" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F130" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G130" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D131" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E131" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F131" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G131" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D132" s="7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="E132" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F132" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="G132" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D133" s="7" t="str">
+        <f t="shared" ref="D133:D192" si="10">IF((N133)&gt;=70,10,"")</f>
+        <v/>
+      </c>
+      <c r="E133" s="3" t="str">
+        <f t="shared" ref="E133:E192" si="11">IF((N133)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="F133" s="3" t="str">
+        <f t="shared" ref="F133:F192" si="12">IF((N133)&gt;=70,20,"")</f>
+        <v/>
+      </c>
+      <c r="G133" s="7" t="str">
+        <f t="shared" ref="G133:G192" si="13">IF((N133)&gt;=70,IF((N133-50)&gt;50,50,IF((N133-50)&lt;0,0,(N133-50))), "" )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D134" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E134" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F134" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G134" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D135" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E135" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F135" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G135" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D136" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E136" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F136" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G136" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D137" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E137" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F137" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G137" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D138" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E138" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F138" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G138" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D139" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E139" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F139" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G139" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D140" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E140" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F140" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G140" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D141" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E141" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F141" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G141" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D142" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E142" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F142" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G142" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D143" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E143" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F143" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G143" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D144" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E144" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F144" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G144" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D145" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E145" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F145" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G145" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D146" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E146" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F146" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G146" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D147" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E147" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F147" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G147" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D148" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E148" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F148" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G148" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D149" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E149" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F149" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G149" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D150" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E150" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F150" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G150" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D151" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E151" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F151" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G151" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D152" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E152" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F152" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G152" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D153" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E153" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F153" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G153" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D154" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E154" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F154" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G154" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D155" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E155" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F155" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G155" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D156" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E156" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F156" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G156" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D157" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E157" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F157" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G157" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D158" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E158" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F158" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G158" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D159" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E159" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F159" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G159" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D160" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E160" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F160" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G160" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D161" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E161" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F161" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G161" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D162" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E162" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F162" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G162" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D163" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E163" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F163" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G163" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D164" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E164" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F164" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G164" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D165" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E165" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F165" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G165" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D166" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E166" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F166" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G166" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D167" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E167" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F167" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G167" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D168" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E168" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F168" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G168" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D169" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E169" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F169" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G169" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D170" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E170" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F170" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G170" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D171" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E171" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F171" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G171" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D172" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E172" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F172" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G172" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D173" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E173" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F173" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G173" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D174" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E174" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F174" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G174" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D175" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E175" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F175" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G175" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D176" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E176" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F176" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G176" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D177" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E177" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F177" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G177" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D178" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E178" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F178" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G178" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D179" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E179" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F179" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G179" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D180" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E180" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F180" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G180" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D181" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E181" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F181" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G181" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D182" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E182" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F182" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G182" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D183" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E183" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F183" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G183" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D184" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E184" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F184" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G184" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D185" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E185" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F185" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G185" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D186" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E186" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F186" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G186" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D187" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E187" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F187" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G187" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D188" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E188" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F188" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G188" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D189" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E189" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F189" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G189" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D190" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E190" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F190" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G190" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D191" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E191" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F191" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G191" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D192" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="E192" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="F192" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G192" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
       </c>
     </row>
   </sheetData>
